--- a/その他/52_開発体験シート.xlsx
+++ b/その他/52_開発体験シート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A785EA6-4936-4DD0-A51B-ADC3B02BB95E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B956613-778F-4361-9F16-E524F9641C11}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="85">
   <si>
     <t>体験項目</t>
     <rPh sb="0" eb="2">
@@ -901,6 +901,85 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定量的な指標を用いることで次回以降のプロジェクトにつながる</t>
+    <rPh sb="0" eb="3">
+      <t>テイリョウテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前反復の反省を活かして作業方針を考える</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウシン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成しテストに通った場合は手を加えられないので注意</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタブを使うよりはユニットテストで作ったものを使用したほうがよい</t>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2096,10 +2175,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2154,7 +2233,9 @@
       <c r="F9" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>56</v>
+      </c>
       <c r="H9" s="51" t="str">
         <f>IF(COUNTIF(E9:G9,"*●*"),"●",IF(COUNTIF(E9:G9,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2177,7 +2258,9 @@
       <c r="F10" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="39"/>
+      <c r="G10" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H10" s="39" t="str">
         <f t="shared" ref="H10:H37" si="0">IF(COUNTIF(E10:G10,"*●*"),"●",IF(COUNTIF(E10:G10,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2200,7 +2283,9 @@
       <c r="F11" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="H11" s="42" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2225,7 +2310,9 @@
       <c r="F12" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="42"/>
+      <c r="G12" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="H12" s="51" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2248,7 +2335,9 @@
       <c r="F13" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="39"/>
+      <c r="G13" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H13" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2292,7 +2381,9 @@
       <c r="F15" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="42"/>
+      <c r="G15" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="H15" s="51" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2315,7 +2406,9 @@
       <c r="F16" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="39"/>
+      <c r="G16" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H16" s="39" t="str">
         <f>IF(COUNTIF(E16:G16,"*●*"),"●",IF(COUNTIF(E16:G16,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2359,7 +2452,9 @@
       <c r="F18" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="38"/>
+      <c r="G18" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="H18" s="51" t="str">
         <f>IF(COUNTIF(E18:G18,"*●*"),"●",IF(COUNTIF(E18:G18,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2380,7 +2475,9 @@
       <c r="F19" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="40"/>
+      <c r="G19" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="H19" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2405,7 +2502,9 @@
       <c r="F20" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="42"/>
+      <c r="G20" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="H20" s="51" t="str">
         <f>IF(COUNTIF(E20:G20,"*●*"),"●",IF(COUNTIF(E20:G20,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2426,12 +2525,16 @@
       <c r="F21" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="39"/>
+      <c r="G21" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H21" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
-      <c r="I21" s="9"/>
+      <c r="I21" s="9" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="22" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="60"/>
@@ -2447,7 +2550,9 @@
       <c r="F22" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="39"/>
+      <c r="G22" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H22" s="53" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2468,12 +2573,16 @@
       <c r="F23" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="39"/>
+      <c r="G23" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H23" s="39" t="str">
         <f>IF(COUNTIF(E23:G23,"*●*"),"●",IF(COUNTIF(E23:G23,"*○*"),"○","－"))</f>
         <v>●</v>
       </c>
-      <c r="I23" s="9"/>
+      <c r="I23" s="9" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="24" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="60"/>
@@ -2489,7 +2598,9 @@
       <c r="F24" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="39"/>
+      <c r="G24" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H24" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2510,7 +2621,9 @@
       <c r="F25" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="40"/>
+      <c r="G25" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="H25" s="42" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2535,7 +2648,9 @@
       <c r="F26" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="42"/>
+      <c r="G26" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="H26" s="51" t="str">
         <f>IF(COUNTIF(E26:G26,"*●*"),"●",IF(COUNTIF(E26:G26,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2556,7 +2671,9 @@
       <c r="F27" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="39"/>
+      <c r="G27" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H27" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2577,7 +2694,9 @@
       <c r="F28" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="40"/>
+      <c r="G28" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="H28" s="42" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2602,7 +2721,9 @@
       <c r="F29" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="42"/>
+      <c r="G29" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="H29" s="51" t="str">
         <f>IF(COUNTIF(E29:G29,"*●*"),"●",IF(COUNTIF(E29:G29,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2623,7 +2744,9 @@
       <c r="F30" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="39"/>
+      <c r="G30" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H30" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2644,7 +2767,9 @@
       <c r="F31" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="39"/>
+      <c r="G31" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H31" s="53" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2667,7 +2792,9 @@
       <c r="F32" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="39"/>
+      <c r="G32" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H32" s="39" t="str">
         <f>IF(COUNTIF(E32:G32,"*●*"),"●",IF(COUNTIF(E32:G32,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2688,12 +2815,16 @@
       <c r="F33" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="39"/>
+      <c r="G33" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H33" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
-      <c r="I33" s="9"/>
+      <c r="I33" s="9" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="34" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="55"/>
@@ -2707,7 +2838,9 @@
       <c r="F34" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="39"/>
+      <c r="G34" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H34" s="53" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2730,7 +2863,9 @@
       <c r="F35" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41" t="s">
+        <v>56</v>
+      </c>
       <c r="H35" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2751,10 +2886,12 @@
       <c r="F36" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G36" s="39"/>
+      <c r="G36" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H36" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I36" s="9"/>
     </row>
@@ -2770,12 +2907,16 @@
       <c r="F37" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="40"/>
+      <c r="G37" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="H37" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
-      </c>
-      <c r="I37" s="13"/>
+        <v>●</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2809,6 +2950,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2978,32 +3128,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86AE9809-2BDF-4F5B-96B6-1BE2B508A423}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3019,12 +3168,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>